--- a/output/results_class_d_merge_part1.xlsx
+++ b/output/results_class_d_merge_part1.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Pollutant Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Test Fraction </t>
+    <t xml:space="preserve">Test Fraction</t>
   </si>
   <si>
     <t xml:space="preserve">Current Categorization in 2020 IR</t>
